--- a/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
@@ -578,7 +578,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -598,7 +598,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -618,7 +618,7 @@
       </c>
       <c r="M2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="N2" s="3" t="inlineStr">

--- a/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -656,7 +656,7 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
@@ -666,17 +666,17 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
@@ -686,17 +686,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,07%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,19%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -706,12 +706,12 @@
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,96%</t>
         </is>
       </c>
     </row>
@@ -724,7 +724,7 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>2,97; 8,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
@@ -734,17 +734,17 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>2,4; 7,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>3,71; 8,65</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,78</t>
+          <t>1,48; 6,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
@@ -754,17 +754,17 @@
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>2,29; 7,74</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>2,57; 6,49</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>2,69; 6,15</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
@@ -774,12 +774,12 @@
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,35</t>
+          <t>3,08; 6,63</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>3,61; 6,66</t>
         </is>
       </c>
     </row>
@@ -796,62 +796,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,69%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,04%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,25%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,69%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,96%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,53%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,6%</t>
         </is>
       </c>
     </row>
@@ -864,62 +864,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>4,49; 9,05</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,41</t>
+          <t>2,33; 6,1</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>4,92; 9,64</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>4,39; 9,06</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,38</t>
+          <t>3,46; 7,55</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,46; 7,39</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,4</t>
+          <t>3,84; 7,94</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>3,3; 6,39</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,67; 7,64</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,25; 5,84</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>4,79; 7,82</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,28; 6,98</t>
         </is>
       </c>
     </row>
@@ -936,62 +936,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,34%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,76%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,45%</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,17%</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,85%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1004,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,62</t>
+          <t>2,56; 6,95</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>3,85; 9,56</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>3,3; 8,3</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>4,31; 9,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,57</t>
+          <t>3,14; 7,68</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,6</t>
+          <t>4,37; 9,86</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,58</t>
+          <t>1,23; 5,33</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>5,13; 9,56</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>3,31; 6,63</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>4,61; 8,64</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,29</t>
+          <t>2,81; 5,94</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>0; 0,21</t>
+          <t>5,41; 8,57</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1076,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,67%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,26%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,2%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>10,59%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,78%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,95%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,77%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>8,67%</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1144,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>2,48; 6,42</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,62; 8,62</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,54</t>
+          <t>4,58; 9,49</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,66</t>
+          <t>4,3; 9,12</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,5</t>
+          <t>3,64; 8,21</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,7; 7,07</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,53</t>
+          <t>7,46; 14,77</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>3,23; 7,57</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>3,68; 6,64</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>4,54; 7,19</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>6,77; 11,14</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>0; 0,22</t>
+          <t>4,09; 7,49</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1216,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,27%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,03%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,39%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,99%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,13%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,37%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,39%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,2%</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,19%</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,93%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1284,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,93</t>
+          <t>4,74; 12,26</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,97</t>
+          <t>3,2; 10,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>3,51; 10,18</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,69</t>
+          <t>1,76; 5,55</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,96</t>
+          <t>2,64; 8,74</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,9</t>
+          <t>3,29; 10,27</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,86</t>
+          <t>2,04; 7,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,39</t>
+          <t>2,88; 6,36</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,46; 9,38</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,47</t>
+          <t>4,1; 8,72</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,44</t>
+          <t>3,16; 7,37</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,77; 5,58</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1356,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,41%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,85%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>7,57%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,38%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,81%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1424,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,72</t>
+          <t>3,76; 9,73</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>4,02; 9,84</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,74</t>
+          <t>2,8; 7,96</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,52</t>
+          <t>4,45; 8,82</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>4,19; 10,99</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,71</t>
+          <t>4,15; 10,52</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,73</t>
+          <t>4,49; 12,19</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,42</t>
+          <t>3,77; 7,34</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,87; 9,19</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,36</t>
+          <t>4,84; 8,8</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,37</t>
+          <t>4,28; 8,74</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>0; 0,23</t>
+          <t>4,54; 7,37</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1496,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,75%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,54%</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,52%</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,32%</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1564,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>2,85; 5,95</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>4,8; 8,65</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,33</t>
+          <t>3,73; 7,46</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,32</t>
+          <t>4,1; 7,68</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,31</t>
+          <t>3,31; 6,77</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,28; 5,19</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,3</t>
+          <t>2,26; 5,4</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,2</t>
+          <t>3,04; 6,72</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,46; 5,8</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,15</t>
+          <t>3,94; 6,33</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,16</t>
+          <t>3,48; 5,77</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0; 0,12</t>
+          <t>3,93; 6,59</t>
         </is>
       </c>
     </row>
@@ -1636,62 +1636,62 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,78%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,06%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,67%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,58%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>3,33%</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,72%</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1704,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,25; 7,65</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,27</t>
+          <t>2,03; 4,62</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>5,12; 8,8</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>4,16; 7,34</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,26</t>
+          <t>4,26; 7,59</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>2,43; 5,18</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,25</t>
+          <t>3,74; 7,05</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,18</t>
+          <t>4,56; 7,15</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,7; 7,05</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>2,46; 4,39</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,13</t>
+          <t>4,77; 7,21</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>0; 0,11</t>
+          <t>4,83; 6,84</t>
         </is>
       </c>
     </row>
@@ -1776,62 +1776,62 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,41%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>4,8%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,24%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,35%</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,04%</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,68%</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>0,0%</t>
+          <t>5,54%</t>
         </is>
       </c>
     </row>
@@ -1844,62 +1844,62 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,7; 6,18</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,51; 6,26</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,19; 6,84</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>5,21; 6,65</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,6; 6,09</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,11; 5,54</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,06</t>
+          <t>4,61; 6,28</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,04</t>
+          <t>4,57; 5,87</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,8; 5,91</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>4,51; 5,54</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,03</t>
+          <t>5,16; 6,32</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>0; 0,02</t>
+          <t>5,05; 6,06</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
@@ -661,7 +661,7 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
@@ -671,7 +671,7 @@
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,37%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -681,7 +681,7 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>4,07%</t>
+          <t>3,97%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
@@ -701,7 +701,7 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>5,28%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
@@ -711,7 +711,7 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>4,96%</t>
+          <t>4,7%</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 8,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
@@ -739,7 +739,7 @@
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,71; 8,65</t>
+          <t>3,33; 7,97</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -749,7 +749,7 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,19; 8,87</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
@@ -759,7 +759,7 @@
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,57; 6,49</t>
+          <t>2,5; 6,38</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
@@ -769,7 +769,7 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,57; 7,46</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
@@ -779,7 +779,7 @@
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,61; 6,66</t>
+          <t>3,4; 6,38</t>
         </is>
       </c>
     </row>
@@ -811,7 +811,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>6,56%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -831,7 +831,7 @@
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>4,69%</t>
+          <t>4,56%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
@@ -851,7 +851,7 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>5,6%</t>
+          <t>5,39%</t>
         </is>
       </c>
     </row>
@@ -879,7 +879,7 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,39; 9,06</t>
+          <t>4,13; 8,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -899,7 +899,7 @@
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,3; 6,39</t>
+          <t>3,22; 6,18</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
@@ -919,7 +919,7 @@
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,28; 6,98</t>
+          <t>4,13; 6,74</t>
         </is>
       </c>
     </row>
@@ -951,7 +951,7 @@
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>6,42%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -971,7 +971,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>7,22%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -991,7 +991,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,85%</t>
+          <t>6,67%</t>
         </is>
       </c>
     </row>
@@ -1019,7 +1019,7 @@
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 9,15</t>
+          <t>4,16; 8,82</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1039,7 +1039,7 @@
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,13; 9,56</t>
+          <t>5,01; 9,35</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
@@ -1059,7 +1059,7 @@
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,41; 8,57</t>
+          <t>5,26; 8,37</t>
         </is>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,35%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
@@ -1091,7 +1091,7 @@
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1101,7 +1101,7 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>5,2%</t>
+          <t>4,98%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
@@ -1111,7 +1111,7 @@
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,78%</t>
+          <t>3,92%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1121,7 +1121,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1131,7 +1131,7 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>5,41%</t>
+          <t>4,8%</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,62; 8,62</t>
+          <t>4,98; 10,64</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
@@ -1159,7 +1159,7 @@
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,3; 9,12</t>
+          <t>4,27; 9,06</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,7; 7,07</t>
+          <t>3,11; 7,52</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
@@ -1179,7 +1179,7 @@
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>3,23; 7,57</t>
+          <t>2,35; 6,16</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
@@ -1189,7 +1189,7 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,19</t>
+          <t>4,4; 7,87</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>4,09; 7,49</t>
+          <t>3,28; 6,62</t>
         </is>
       </c>
     </row>
@@ -1231,7 +1231,7 @@
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>3,39%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -1251,7 +1251,7 @@
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>4,39%</t>
+          <t>4,38%</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
@@ -1299,7 +1299,7 @@
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,76; 5,55</t>
+          <t>1,78; 5,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1319,7 +1319,7 @@
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,36</t>
+          <t>2,88; 6,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
@@ -1339,7 +1339,7 @@
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,77; 5,58</t>
+          <t>2,76; 5,55</t>
         </is>
       </c>
     </row>
@@ -1371,47 +1371,47 @@
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>6,15%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>6,91%</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>6,73%</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>7,57%</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>5,38%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>6,66%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>6,6%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
           <t>6,24%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>6,91%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>6,73%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>7,57%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>5,38%</t>
-        </is>
-      </c>
-      <c r="K14" s="2" t="inlineStr">
-        <is>
-          <t>6,66%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>6,6%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>6,24%</t>
-        </is>
-      </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,77%</t>
         </is>
       </c>
     </row>
@@ -1439,7 +1439,7 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,82</t>
+          <t>4,38; 8,68</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -1459,7 +1459,7 @@
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,77; 7,34</t>
+          <t>3,78; 7,3</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
@@ -1479,7 +1479,7 @@
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,54; 7,37</t>
+          <t>4,52; 7,34</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1511,7 @@
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>5,75%</t>
+          <t>5,49%</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -1531,7 +1531,7 @@
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>4,98%</t>
+          <t>4,28%</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
@@ -1551,7 +1551,7 @@
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>5,32%</t>
+          <t>4,79%</t>
         </is>
       </c>
     </row>
@@ -1579,7 +1579,7 @@
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4,1; 7,68</t>
+          <t>3,89; 7,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -1599,7 +1599,7 @@
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>3,04; 6,72</t>
+          <t>1,93; 6,24</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
@@ -1619,7 +1619,7 @@
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>3,93; 6,59</t>
+          <t>2,86; 6,05</t>
         </is>
       </c>
     </row>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>4,51%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>5,76%</t>
+          <t>5,88%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
@@ -1691,7 +1691,7 @@
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,1%</t>
         </is>
       </c>
     </row>
@@ -1719,7 +1719,7 @@
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>4,16; 7,34</t>
+          <t>1,85; 6,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -1739,7 +1739,7 @@
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,56; 7,15</t>
+          <t>4,67; 7,27</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
@@ -1759,7 +1759,7 @@
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>4,83; 6,84</t>
+          <t>3,08; 6,31</t>
         </is>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>5,88%</t>
+          <t>5,39%</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -1811,7 +1811,7 @@
       </c>
       <c r="J20" s="2" t="inlineStr">
         <is>
-          <t>5,24%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="K20" s="2" t="inlineStr">
@@ -1831,7 +1831,7 @@
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,14%</t>
         </is>
       </c>
     </row>
@@ -1859,7 +1859,7 @@
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>5,21; 6,65</t>
+          <t>4,13; 6,21</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -1879,7 +1879,7 @@
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,57; 5,87</t>
+          <t>4,07; 5,59</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
@@ -1899,7 +1899,7 @@
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>5,05; 6,06</t>
+          <t>4,46; 5,71</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P16A10-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -646,7 +647,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -724,69 +725,69 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>2,97; 8,11</t>
+          <t>2,98; 7,99</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,67; 8,25</t>
+          <t>2,79; 8,68</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 7,31</t>
+          <t>2,45; 7,31</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>3,33; 7,97</t>
+          <t>3,43; 8,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>1,48; 6,13</t>
+          <t>1,54; 6,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>3,19; 8,87</t>
+          <t>3,13; 9,11</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>2,29; 7,74</t>
+          <t>2,46; 8,0</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>2,5; 6,38</t>
+          <t>2,48; 6,47</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 6,15</t>
+          <t>2,76; 6,29</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>3,57; 7,46</t>
+          <t>3,53; 7,6</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,63</t>
+          <t>2,95; 6,4</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>3,4; 6,38</t>
+          <t>3,31; 6,49</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -864,69 +865,69 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,49; 9,05</t>
+          <t>4,85; 9,56</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>2,33; 6,1</t>
+          <t>2,26; 5,94</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>4,92; 9,64</t>
+          <t>5,01; 9,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 8,66</t>
+          <t>4,34; 8,5</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,55</t>
+          <t>3,45; 7,41</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>3,46; 7,39</t>
+          <t>3,44; 7,29</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>3,84; 7,94</t>
+          <t>3,7; 7,73</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>3,22; 6,18</t>
+          <t>3,1; 6,24</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,64</t>
+          <t>4,56; 7,56</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>3,25; 5,84</t>
+          <t>3,38; 5,92</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>4,79; 7,82</t>
+          <t>4,88; 7,94</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,74</t>
+          <t>4,24; 7,06</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,56; 6,95</t>
+          <t>2,54; 7,19</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 9,56</t>
+          <t>3,81; 9,48</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,3; 8,3</t>
+          <t>3,58; 8,17</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,16; 8,82</t>
+          <t>4,25; 8,85</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>3,14; 7,68</t>
+          <t>3,03; 8,0</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,37; 9,86</t>
+          <t>4,42; 9,7</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>1,23; 5,33</t>
+          <t>1,21; 5,5</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,35</t>
+          <t>5,14; 9,47</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,63</t>
+          <t>3,29; 6,66</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>4,61; 8,64</t>
+          <t>4,7; 8,55</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>2,81; 5,94</t>
+          <t>2,83; 5,99</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>5,26; 8,37</t>
+          <t>5,15; 8,14</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>2,48; 6,42</t>
+          <t>2,46; 6,4</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>4,98; 10,64</t>
+          <t>4,89; 10,52</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,58; 9,49</t>
+          <t>4,37; 9,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>4,27; 9,06</t>
+          <t>4,28; 9,16</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,64; 8,21</t>
+          <t>3,69; 8,6</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>3,11; 7,52</t>
+          <t>3,1; 7,63</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 14,77</t>
+          <t>7,4; 14,74</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>2,35; 6,16</t>
+          <t>2,25; 6,3</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>3,68; 6,64</t>
+          <t>3,65; 6,61</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>4,4; 7,87</t>
+          <t>4,49; 8,11</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>6,77; 11,14</t>
+          <t>6,62; 11,13</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>3,28; 6,62</t>
+          <t>3,28; 6,52</t>
         </is>
       </c>
     </row>
@@ -1284,69 +1285,69 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>4,74; 12,26</t>
+          <t>4,88; 12,0</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>3,2; 10,41</t>
+          <t>3,21; 10,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,51; 10,18</t>
+          <t>3,35; 10,5</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>1,78; 5,58</t>
+          <t>1,78; 5,6</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>2,64; 8,74</t>
+          <t>2,55; 8,94</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>3,29; 10,27</t>
+          <t>3,44; 10,11</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>2,04; 7,92</t>
+          <t>1,93; 7,81</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>2,88; 6,35</t>
+          <t>2,89; 6,35</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,46; 9,38</t>
+          <t>4,35; 9,01</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>4,1; 8,72</t>
+          <t>4,05; 8,92</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>3,16; 7,37</t>
+          <t>3,53; 7,55</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>2,76; 5,55</t>
+          <t>2,78; 5,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -1424,69 +1425,69 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,76; 9,73</t>
+          <t>4,17; 9,88</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>4,02; 9,84</t>
+          <t>3,79; 9,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>2,8; 7,96</t>
+          <t>2,48; 8,08</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>4,38; 8,68</t>
+          <t>4,34; 8,44</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,19; 10,99</t>
+          <t>4,2; 10,49</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 10,52</t>
+          <t>4,14; 10,41</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>4,49; 12,19</t>
+          <t>4,73; 11,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>3,78; 7,3</t>
+          <t>3,87; 7,55</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>4,87; 9,19</t>
+          <t>4,89; 9,21</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,84; 8,8</t>
+          <t>4,79; 8,9</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>4,28; 8,74</t>
+          <t>4,27; 8,92</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>4,52; 7,34</t>
+          <t>4,54; 7,2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>2,85; 5,95</t>
+          <t>2,87; 6,15</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,65</t>
+          <t>4,66; 8,53</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>3,73; 7,46</t>
+          <t>3,7; 7,31</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>3,89; 7,41</t>
+          <t>3,86; 7,31</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>3,31; 6,77</t>
+          <t>3,34; 6,66</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>2,28; 5,19</t>
+          <t>2,32; 5,29</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>2,26; 5,4</t>
+          <t>2,4; 5,52</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>1,93; 6,24</t>
+          <t>2,05; 6,07</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>3,46; 5,8</t>
+          <t>3,49; 5,87</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>3,94; 6,33</t>
+          <t>3,94; 6,37</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>3,48; 5,77</t>
+          <t>3,42; 5,88</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>2,86; 6,05</t>
+          <t>2,86; 6,01</t>
         </is>
       </c>
     </row>
@@ -1704,62 +1705,62 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>4,25; 7,65</t>
+          <t>4,16; 7,55</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>2,03; 4,62</t>
+          <t>1,95; 4,72</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5,12; 8,8</t>
+          <t>4,93; 8,73</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>1,85; 6,53</t>
+          <t>1,92; 6,75</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>4,26; 7,59</t>
+          <t>4,09; 7,66</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2,43; 5,18</t>
+          <t>2,46; 5,17</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>3,74; 7,05</t>
+          <t>3,72; 7,02</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>4,67; 7,27</t>
+          <t>4,66; 7,2</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>4,7; 7,05</t>
+          <t>4,61; 6,99</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>2,46; 4,39</t>
+          <t>2,55; 4,58</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>4,77; 7,21</t>
+          <t>4,83; 7,29</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>3,08; 6,31</t>
+          <t>3,1; 6,37</t>
         </is>
       </c>
     </row>
@@ -1844,57 +1845,57 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>4,7; 6,18</t>
+          <t>4,62; 6,27</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>4,51; 6,26</t>
+          <t>4,48; 6,07</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>5,19; 6,84</t>
+          <t>5,11; 6,78</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>4,13; 6,21</t>
+          <t>4,1; 6,18</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>4,6; 6,09</t>
+          <t>4,57; 6,04</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>4,11; 5,54</t>
+          <t>4,08; 5,55</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>4,61; 6,28</t>
+          <t>4,62; 6,18</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>4,07; 5,59</t>
+          <t>3,94; 5,53</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>4,8; 5,91</t>
+          <t>4,8; 5,88</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>4,51; 5,54</t>
+          <t>4,51; 5,55</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>5,16; 6,32</t>
+          <t>5,09; 6,27</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -1928,4 +1929,2048 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que ha consumido medicamentos para el corazón en las dos últimas semanas</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>27</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>13592</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>14700</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>12874</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>16736</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>8777</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>15653</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>13039</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>11500</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>22369</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>30354</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>25913</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>28236</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>8145; 21805</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>8118; 25264</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>7198; 21489</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>10678; 25282</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>4013; 17005</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>8905; 25893</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>7091; 23097</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>7174; 18748</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>14715; 33585</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>20285; 43701</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>17175; 37267</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>19892; 39039</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>32963</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>19868</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>35364</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>32144</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>26461</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>26665</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>28885</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>23420</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>59424</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>46533</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>64249</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>55564</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>23923; 47125</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>11410; 30039</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>25163; 47460</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>22461; 43995</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>17363; 37367</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>17933; 38046</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>19348; 40447</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>15946; 32080</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>45441; 75326</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>34691; 60820</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>50048; 81403</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>43736; 72810</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>32</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>13830</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20500</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>17705</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>19663</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>17306</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>22358</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>9592</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>24689</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>31137</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>42857</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>27297</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>44352</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>8084; 22938</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>12318; 30624</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>11396; 26027</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>13432; 27966</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10152; 26833</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>15069; 33068</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>4067; 18495</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>17935; 33051</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>21536; 43601</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>31182; 56775</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>18505; 39234</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>34247; 54132</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>19</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>14301</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>27495</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>24682</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>19223</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21861</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>19324</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>41009</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>18635</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>36162</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>46819</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>65690</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>37858</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>8834; 22943</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>18269; 39354</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>16174; 35824</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>13393; 28644</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>13719; 31929</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>12017; 29601</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>28672; 57067</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>10684; 29955</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>26655; 48262</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>34222; 61816</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>50099; 84245</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>25829; 51367</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>24</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>25</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>16015</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>13324</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>12741</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>6111</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>10361</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>13456</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>9559</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>9129</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>26376</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>26779</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>22301</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>15240</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>9922; 24393</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>6835; 21338</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>7066; 22169</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>3191; 10005</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>5290; 18558</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>7560; 22193</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>4222; 17074</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>6032; 13246</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>17880; 37028</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>17492; 38545</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>15152; 32446</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>10760; 20721</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>13</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>18</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>31</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>17371</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>17710</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>12751</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>16569</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>19210</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>18795</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>20686</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>13825</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>36581</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>36505</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>33437</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>30394</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>11281; 26765</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>10381; 27043</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>6518; 21253</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>11697; 22754</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>11674; 29170</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>11557; 29045</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>12932; 32229</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>9940; 19412</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>26863; 50572</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>26480; 49230</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>22906; 47809</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>23934; 37897</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>28</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>23</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>26309</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>43094</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>35368</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>34248</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>30648</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>24810</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>25547</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>36343</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>56958</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>67904</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>60915</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>70591</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>17634; 37821</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>30898; 56562</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>24301; 47993</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>24080; 45664</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>21292; 42480</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>16127; 36716</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>16599; 38182</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>17415; 51562</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>43703; 73510</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>53388; 86395</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>46060; 79246</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>42166; 88595</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>21</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="F25" s="2" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="G25" s="2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="H25" s="2" t="inlineStr">
+        <is>
+          <t>26</t>
+        </is>
+      </c>
+      <c r="I25" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="J25" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="K25" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="L25" s="2" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="M25" s="2" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="N25" s="2" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>42924</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>23797</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>51615</t>
+        </is>
+      </c>
+      <c r="F26" s="2" t="inlineStr">
+        <is>
+          <t>41860</t>
+        </is>
+      </c>
+      <c r="G26" s="2" t="inlineStr">
+        <is>
+          <t>44320</t>
+        </is>
+      </c>
+      <c r="H26" s="2" t="inlineStr">
+        <is>
+          <t>29400</t>
+        </is>
+      </c>
+      <c r="I26" s="2" t="inlineStr">
+        <is>
+          <t>42667</t>
+        </is>
+      </c>
+      <c r="J26" s="2" t="inlineStr">
+        <is>
+          <t>41989</t>
+        </is>
+      </c>
+      <c r="K26" s="2" t="inlineStr">
+        <is>
+          <t>87244</t>
+        </is>
+      </c>
+      <c r="L26" s="2" t="inlineStr">
+        <is>
+          <t>53197</t>
+        </is>
+      </c>
+      <c r="M26" s="2" t="inlineStr">
+        <is>
+          <t>94282</t>
+        </is>
+      </c>
+      <c r="N26" s="2" t="inlineStr">
+        <is>
+          <t>83849</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>30891; 56082</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>15118; 36705</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>38369; 67974</t>
+        </is>
+      </c>
+      <c r="F27" s="2" t="inlineStr">
+        <is>
+          <t>17800; 62652</t>
+        </is>
+      </c>
+      <c r="G27" s="2" t="inlineStr">
+        <is>
+          <t>32012; 59999</t>
+        </is>
+      </c>
+      <c r="H27" s="2" t="inlineStr">
+        <is>
+          <t>20179; 42460</t>
+        </is>
+      </c>
+      <c r="I27" s="2" t="inlineStr">
+        <is>
+          <t>30697; 58031</t>
+        </is>
+      </c>
+      <c r="J27" s="2" t="inlineStr">
+        <is>
+          <t>33272; 51400</t>
+        </is>
+      </c>
+      <c r="K27" s="2" t="inlineStr">
+        <is>
+          <t>70317; 106724</t>
+        </is>
+      </c>
+      <c r="L27" s="2" t="inlineStr">
+        <is>
+          <t>40701; 73191</t>
+        </is>
+      </c>
+      <c r="M27" s="2" t="inlineStr">
+        <is>
+          <t>77504; 116949</t>
+        </is>
+      </c>
+      <c r="N27" s="2" t="inlineStr">
+        <is>
+          <t>50925; 104620</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="F28" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="G28" s="2" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="H28" s="2" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="I28" s="2" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="J28" s="2" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="K28" s="2" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="L28" s="2" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="M28" s="2" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="N28" s="2" t="inlineStr">
+        <is>
+          <t>615</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>177307</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>180488</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>203100</t>
+        </is>
+      </c>
+      <c r="F29" s="2" t="inlineStr">
+        <is>
+          <t>186554</t>
+        </is>
+      </c>
+      <c r="G29" s="2" t="inlineStr">
+        <is>
+          <t>178944</t>
+        </is>
+      </c>
+      <c r="H29" s="2" t="inlineStr">
+        <is>
+          <t>170460</t>
+        </is>
+      </c>
+      <c r="I29" s="2" t="inlineStr">
+        <is>
+          <t>190984</t>
+        </is>
+      </c>
+      <c r="J29" s="2" t="inlineStr">
+        <is>
+          <t>179530</t>
+        </is>
+      </c>
+      <c r="K29" s="2" t="inlineStr">
+        <is>
+          <t>356251</t>
+        </is>
+      </c>
+      <c r="L29" s="2" t="inlineStr">
+        <is>
+          <t>350949</t>
+        </is>
+      </c>
+      <c r="M29" s="2" t="inlineStr">
+        <is>
+          <t>394084</t>
+        </is>
+      </c>
+      <c r="N29" s="2" t="inlineStr">
+        <is>
+          <t>366084</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>151478; 205422</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>153180; 207758</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>173541; 230261</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>141855; 213766</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>154492; 204222</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>144719; 196865</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>163842; 219186</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
+          <t>144087; 202394</t>
+        </is>
+      </c>
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>319374; 391562</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>314112; 386473</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>353330; 434981</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
+        <is>
+          <t>317171; 406526</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>